--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Publication Status.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Publication Status.xlsx
@@ -71,6 +71,12 @@
     <t>A document that is not peer reviewed</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Publication Status_10</t>
+  </si>
+  <si>
     <t>Peer reviewed</t>
   </si>
   <si>
@@ -105,12 +111,6 @@
   </si>
   <si>
     <t>Unpublished document</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Publication Status_10</t>
   </si>
 </sst>
 </file>
@@ -234,48 +234,48 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
     </row>
